--- a/test/files/example_legacy.xlsx
+++ b/test/files/example_legacy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D158B7F9-1103-6646-A983-62E11115FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268B6299-6B22-AD4F-9268-5F27BE2A2291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31980" yWindow="-2560" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deposits" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>APPL</t>
-  </si>
-  <si>
     <t>GOOG</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>net_amount</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
 </sst>
 </file>
@@ -319,9 +319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -438,7 +436,7 @@
         <v>43749</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -458,7 +456,7 @@
         <v>44845</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -483,9 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -501,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -532,7 +528,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -554,9 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -571,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -668,7 +662,7 @@
         <v>44867</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -688,7 +682,7 @@
         <v>44868</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -708,7 +702,7 @@
         <v>44868</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -728,7 +722,7 @@
         <v>44879</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -753,9 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -768,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
